--- a/inputdata/processed/Tables_new/Metadata.xlsx
+++ b/inputdata/processed/Tables_new/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family_microbiome\inputdata\processed\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family_microbiome\inputdata\processed\Tables_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49018DB1-DEFF-4C5D-BFAF-BC12C1098DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F95F47-5502-4D81-A99E-38B1E771EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>N5</t>
   </si>
   <si>
-    <t>N6</t>
-  </si>
-  <si>
     <t>O1</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>Daughter</t>
   </si>
   <si>
-    <t xml:space="preserve">H1 </t>
-  </si>
-  <si>
     <t>Elderly</t>
   </si>
   <si>
@@ -470,13 +464,19 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>H1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +488,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -879,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,46 +902,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -946,40 +952,40 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -990,40 +996,40 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1034,40 +1040,40 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1078,40 +1084,40 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1122,40 +1128,40 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1166,40 +1172,40 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1210,40 +1216,40 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1254,40 +1260,40 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1298,40 +1304,40 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1342,40 +1348,40 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1386,40 +1392,40 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1430,40 +1436,40 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1474,40 +1480,40 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1518,40 +1524,40 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1562,40 +1568,40 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1606,40 +1612,40 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1650,40 +1656,40 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1694,40 +1700,40 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1738,40 +1744,40 @@
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1782,40 +1788,40 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1826,40 +1832,40 @@
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1870,40 +1876,40 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1914,40 +1920,40 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1958,40 +1964,40 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2002,40 +2008,40 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2046,40 +2052,40 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2090,40 +2096,40 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2134,40 +2140,40 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2178,128 +2184,128 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2310,40 +2316,40 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>86</v>
+      <c r="M33" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2354,40 +2360,40 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2398,40 +2404,40 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2442,40 +2448,40 @@
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2486,40 +2492,40 @@
         <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>86</v>
+      <c r="M37" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2530,40 +2536,40 @@
         <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2574,40 +2580,40 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2618,40 +2624,40 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2662,40 +2668,40 @@
         <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2706,40 +2712,40 @@
         <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2750,40 +2756,40 @@
         <v>27</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2794,40 +2800,40 @@
         <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2838,40 +2844,40 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2882,40 +2888,40 @@
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2926,40 +2932,40 @@
         <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2970,40 +2976,40 @@
         <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3014,40 +3020,40 @@
         <v>28</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3058,40 +3064,40 @@
         <v>28</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3102,40 +3108,40 @@
         <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3146,40 +3152,40 @@
         <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3190,40 +3196,40 @@
         <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -3234,40 +3240,40 @@
         <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3278,40 +3284,40 @@
         <v>28</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3322,40 +3328,40 @@
         <v>29</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3366,40 +3372,40 @@
         <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3410,40 +3416,40 @@
         <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3454,40 +3460,40 @@
         <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3498,40 +3504,40 @@
         <v>29</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3542,568 +3548,568 @@
         <v>29</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>86</v>
+      <c r="M69" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M70" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="8:11" x14ac:dyDescent="0.3">
@@ -4173,6 +4179,7 @@
       <c r="K125" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/inputdata/processed/Tables_new/Metadata.xlsx
+++ b/inputdata/processed/Tables_new/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family_microbiome\inputdata\processed\Tables_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F95F47-5502-4D81-A99E-38B1E771EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F811E-167D-4879-B864-AA4C4ED8ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>H1</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -563,9 +563,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,9 +603,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,26 +638,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,26 +673,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -886,7 +852,7 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,43 +871,43 @@
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -952,40 +918,40 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -996,40 +962,40 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1040,40 +1006,40 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1084,40 +1050,40 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1128,40 +1094,40 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1172,40 +1138,40 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1216,40 +1182,40 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1260,40 +1226,40 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1304,40 +1270,40 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1348,40 +1314,40 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1392,40 +1358,40 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1436,40 +1402,40 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1480,40 +1446,40 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1524,40 +1490,40 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1568,40 +1534,40 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1612,40 +1578,40 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1656,40 +1622,40 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1700,40 +1666,40 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1744,40 +1710,40 @@
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1788,40 +1754,40 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1832,40 +1798,40 @@
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1876,40 +1842,40 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1920,40 +1886,40 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1964,40 +1930,40 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2008,40 +1974,40 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2052,40 +2018,40 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2096,40 +2062,40 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2140,40 +2106,40 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2184,40 +2150,40 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2228,84 +2194,84 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2316,40 +2282,40 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2360,40 +2326,40 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2404,40 +2370,40 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2448,40 +2414,40 @@
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2492,40 +2458,40 @@
         <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="M37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2536,40 +2502,40 @@
         <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2580,40 +2546,40 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2624,40 +2590,40 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2668,40 +2634,40 @@
         <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2712,40 +2678,40 @@
         <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2756,40 +2722,40 @@
         <v>27</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2800,40 +2766,40 @@
         <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2844,40 +2810,40 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2888,40 +2854,40 @@
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2932,40 +2898,40 @@
         <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2976,40 +2942,40 @@
         <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3020,40 +2986,40 @@
         <v>28</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3064,40 +3030,40 @@
         <v>28</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3108,40 +3074,40 @@
         <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3152,40 +3118,40 @@
         <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3196,40 +3162,40 @@
         <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -3240,40 +3206,40 @@
         <v>28</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3284,40 +3250,40 @@
         <v>28</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3328,40 +3294,40 @@
         <v>29</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3372,40 +3338,40 @@
         <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3416,40 +3382,40 @@
         <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3460,40 +3426,40 @@
         <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3504,40 +3470,40 @@
         <v>29</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3548,84 +3514,84 @@
         <v>29</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3636,40 +3602,40 @@
         <v>28</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3680,40 +3646,40 @@
         <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3724,40 +3690,40 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3768,40 +3734,40 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -3812,40 +3778,40 @@
         <v>27</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -3856,40 +3822,40 @@
         <v>27</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -3900,40 +3866,40 @@
         <v>27</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -3944,40 +3910,40 @@
         <v>27</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -3988,40 +3954,40 @@
         <v>28</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -4032,40 +3998,40 @@
         <v>28</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -4076,40 +4042,40 @@
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="8:11" x14ac:dyDescent="0.3">
